--- a/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
+++ b/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USC\code_mine\yasa_examination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97058A-6E40-41F0-A043-3DE7272BC6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3E048-5FBF-4EA8-B905-F69831CDA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>hypno_start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>hypno_end-time &gt; edf_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNE edf module 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Sleep 기반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +108,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -126,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -177,46 +194,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,210 +542,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:H15"/>
+  <dimension ref="D2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="4:14" ht="21" x14ac:dyDescent="0.45">
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>2.1527777777777781E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>1.7013888888888887E-2</v>
       </c>
-    </row>
-    <row r="4" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="6" t="s">
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.7013888888888887E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="7">
         <v>0.24444444444444446</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5" s="8">
         <v>0.27534722222222224</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G5" s="8">
         <v>0.27708333333333335</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H5" s="7">
         <v>0.25555555555555559</v>
       </c>
-    </row>
-    <row r="5" spans="4:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="4" t="s">
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.27534722222222224</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.25555555555555559</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>1.0520833333333333E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>1.4085648148148151E-2</v>
       </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D6" s="1" t="s">
+      <c r="J6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.0520833333333333E-2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.0636574074074074E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.1608796296296296E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.4085648148148151E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>0.27527777777777779</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>0.26953703703703702</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>0.26886574074074071</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>0.25741898148148151</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.27527777777777779</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.26953703703703702</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.26886574074074071</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.25741898148148151</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>2.326388888888889E-2</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="6" t="s">
+      <c r="J10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.326388888888889E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>0.26284722222222223</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>0.2590277777777778</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>0.25555555555555559</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>0.23958333333333334</v>
       </c>
-    </row>
-    <row r="11" spans="4:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="4" t="s">
+      <c r="J11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.26284722222222223</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>2.0532407407407405E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>1.5868055555555555E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>3.4305555555555554E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>1.5196759259259259E-2</v>
       </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D12" s="1" t="s">
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2.0532407407407405E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.5868055555555555E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3.4305555555555554E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.5196759259259259E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>0.27373842592592595</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>0.25870370370370371</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>0.27332175925925922</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>0.25946759259259261</v>
       </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.27373842592592595</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.25870370370370371</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.27332175925925922</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.25946759259259261</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$E$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$E$5</formula>
+      <formula>$E$6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
+++ b/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USC\code_mine\yasa_examination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3E048-5FBF-4EA8-B905-F69831CDA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE4FC7-6CFA-432C-AA38-FFCEDE0EEB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>hypno_start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>edf_start_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LE004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,26 @@
   </si>
   <si>
     <t>U-Sleep 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USleep_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usleep_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edf_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypno_start_time &lt; USleep_start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypno_end-time &gt; USleep_end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,10 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +138,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,37 +229,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,10 +286,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -542,379 +597,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:N16"/>
+  <dimension ref="D2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:14" ht="21" x14ac:dyDescent="0.45">
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="J2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>2.1527777777777781E-2</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="8">
+        <v>2.1527777777777798E-2</v>
+      </c>
+      <c r="F4" s="8">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <v>1.7013888888888887E-2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <v>2.1527777777777781E-2</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="8">
+        <v>2.1527777777777798E-2</v>
+      </c>
+      <c r="L4" s="14">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="14">
         <v>9.0277777777777787E-3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="8">
         <v>1.7013888888888887E-2</v>
       </c>
     </row>
     <row r="5" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>0.24444444444444446</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>0.27534722222222224</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>0.27708333333333335</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>0.25555555555555559</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>0.24444444444444446</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>0.27534722222222224</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="11">
         <v>0.27708333333333335</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="10">
         <v>0.25555555555555559</v>
       </c>
     </row>
     <row r="6" spans="4:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
-        <v>1.0520833333333333E-2</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="12">
+        <v>1.2604166666666666E-2</v>
+      </c>
+      <c r="F6" s="12">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>1.4085648148148151E-2</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1.0520833333333333E-2</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1.2604166666666666E-2</v>
+      </c>
+      <c r="L6" s="15">
         <v>1.0636574074074074E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="15">
         <v>1.1608796296296296E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="15">
         <v>1.4085648148148151E-2</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.27527777777777779</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>0.26953703703703702</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="8">
         <v>0.26886574074074071</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.25741898148148151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.27527777777777779</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.26953703703703702</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.26886574074074071</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.25741898148148151</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.27475694444444443</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.26896990740740739</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.2682060185185185</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.25679398148148147</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
         <v>2.326388888888889E-2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="8">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="8">
         <v>2.326388888888889E-2</v>
       </c>
     </row>
     <row r="11" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>0.26284722222222223</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>0.2590277777777778</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="10">
         <v>0.25555555555555559</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>0.23958333333333334</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="10">
         <v>0.26284722222222223</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="11">
         <v>0.2590277777777778</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="10">
         <v>0.25555555555555559</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="10">
         <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="12" spans="4:14" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="12">
         <v>2.0532407407407405E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="12">
         <v>1.5868055555555555E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="12">
         <v>3.4305555555555554E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="12">
         <v>1.5196759259259259E-2</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="16">
         <v>2.0532407407407405E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="16">
         <v>1.5868055555555555E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="16">
         <v>3.4305555555555554E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="16">
         <v>1.5196759259259259E-2</v>
       </c>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.27373842592592595</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.25870370370370371</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.27332175925925922</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.25946759259259261</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.27331018518518518</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.25822916666666668</v>
+      </c>
+      <c r="M13" s="15">
+        <v>0.27284722222222224</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0.25894675925925925</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D15" s="4"/>
+      <c r="E15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D16" s="5"/>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.1527777777777798E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.27534722222222224</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.26284722222222223</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.2604166666666666E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.0636574074074074E-2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1.1608796296296296E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2.0532407407407405E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.27527777777777779</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.26953703703703702</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.26886574074074071</v>
+      </c>
+      <c r="I30" s="8">
         <v>0.27373842592592595</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.25870370370370371</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.27332175925925922</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.25946759259259261</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.27373842592592595</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.25870370370370371</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.27332175925925922</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.25946759259259261</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D15" s="9"/>
-      <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.4">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>$E$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$E$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$E$6</formula>
     </cfRule>

--- a/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
+++ b/yasa_examination/comparison_hypno_edf_start_and_end_time.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USC\code_mine\yasa_examination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE4FC7-6CFA-432C-AA38-FFCEDE0EEB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322FC9E-C765-4925-8EF2-C7C1B890C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>hypno_start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +114,14 @@
   </si>
   <si>
     <t>hypno_end-time &gt; USleep_end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edf_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New LE data 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,13 +302,137 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -597,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:N30"/>
+  <dimension ref="D2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -978,91 +1120,226 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+    <row r="22" spans="4:8" ht="21" x14ac:dyDescent="0.45">
+      <c r="D22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2.1527777777777798E-2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1.7013888888888887E-2</v>
+      </c>
+      <c r="G24" s="14">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.7013888888888887E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.27534722222222224</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.25555555555555559</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1.2349537037037039E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1.1469907407407408E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>7.3958333333333341E-3</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.300925925925926E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.23224537037037038</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.26451388888888888</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0.27513888888888888</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.24300925925925929</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8">
+        <f>E26+E27</f>
+        <v>0.24459490740740741</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:H28" si="0">F26+F27</f>
+        <v>0.27598379629629627</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2825347222222222</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25601851851851853</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D31" s="1"/>
+      <c r="E31" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E27" s="1" t="s">
+      <c r="F31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="8">
-        <v>2.1527777777777798E-2</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="E32" s="8">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F32" s="14">
         <v>1.7013888888888887E-2</v>
       </c>
-      <c r="H27" s="9">
-        <v>9.0277777777777787E-3</v>
-      </c>
-      <c r="I27" s="8">
-        <v>2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="3" t="s">
+      <c r="G32" s="14">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2.326388888888889E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="10">
-        <v>0.24444444444444446</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.27534722222222224</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0.27708333333333335</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="E33" s="10">
         <v>0.26284722222222223</v>
       </c>
-    </row>
-    <row r="29" spans="5:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="2" t="s">
+      <c r="F33" s="21">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.23958333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12">
-        <v>1.2604166666666666E-2</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1.0636574074074074E-2</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1.1608796296296296E-2</v>
-      </c>
-      <c r="I29" s="12">
-        <v>2.0532407407407405E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E30" s="1" t="s">
+      <c r="E34" s="12">
+        <v>8.5069444444444437E-3</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1.3402777777777777E-2</v>
+      </c>
+      <c r="G34" s="12">
+        <v>2.238425925925926E-2</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2.2858796296296294E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.25495370370370368</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.24585648148148151</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0.23342592592592593</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0.21756944444444445</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="8">
-        <v>0.27527777777777779</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.26953703703703702</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0.26886574074074071</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0.27373842592592595</v>
+      <c r="E36" s="8">
+        <f>E34+E35</f>
+        <v>0.26346064814814812</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" ref="F36" si="1">F34+F35</f>
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" ref="G36" si="2">G34+G35</f>
+        <v>0.25581018518518517</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" ref="H36" si="3">H34+H35</f>
+        <v>0.24042824074074076</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D2:H2"/>
@@ -1072,18 +1349,28 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>$E$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>$E$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>$E$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:H32 E24:H24">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$E$24&lt;$E$26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:H25 E33:H33">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$E$25&gt;$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
